--- a/stock/data/카카오뱅크.xlsx
+++ b/stock/data/카카오뱅크.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G652"/>
+  <dimension ref="A1:G685"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15441,10 +15441,769 @@
         <v>27550</v>
       </c>
       <c r="F652" t="n">
-        <v>685453</v>
+        <v>690017</v>
       </c>
       <c r="G652" t="n">
         <v>-1.95729537366548</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B653" t="n">
+        <v>27850</v>
+      </c>
+      <c r="C653" t="n">
+        <v>27850</v>
+      </c>
+      <c r="D653" t="n">
+        <v>27300</v>
+      </c>
+      <c r="E653" t="n">
+        <v>27400</v>
+      </c>
+      <c r="F653" t="n">
+        <v>530096</v>
+      </c>
+      <c r="G653" t="n">
+        <v>-0.5444646098003629</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="2" t="n">
+        <v>45384</v>
+      </c>
+      <c r="B654" t="n">
+        <v>27050</v>
+      </c>
+      <c r="C654" t="n">
+        <v>27050</v>
+      </c>
+      <c r="D654" t="n">
+        <v>26500</v>
+      </c>
+      <c r="E654" t="n">
+        <v>26550</v>
+      </c>
+      <c r="F654" t="n">
+        <v>1052402</v>
+      </c>
+      <c r="G654" t="n">
+        <v>-3.102189781021898</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="2" t="n">
+        <v>45385</v>
+      </c>
+      <c r="B655" t="n">
+        <v>26500</v>
+      </c>
+      <c r="C655" t="n">
+        <v>26800</v>
+      </c>
+      <c r="D655" t="n">
+        <v>26200</v>
+      </c>
+      <c r="E655" t="n">
+        <v>26350</v>
+      </c>
+      <c r="F655" t="n">
+        <v>691274</v>
+      </c>
+      <c r="G655" t="n">
+        <v>-0.7532956685499058</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="B656" t="n">
+        <v>26550</v>
+      </c>
+      <c r="C656" t="n">
+        <v>26800</v>
+      </c>
+      <c r="D656" t="n">
+        <v>25850</v>
+      </c>
+      <c r="E656" t="n">
+        <v>25950</v>
+      </c>
+      <c r="F656" t="n">
+        <v>726128</v>
+      </c>
+      <c r="G656" t="n">
+        <v>-1.518026565464896</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="B657" t="n">
+        <v>25750</v>
+      </c>
+      <c r="C657" t="n">
+        <v>25950</v>
+      </c>
+      <c r="D657" t="n">
+        <v>25300</v>
+      </c>
+      <c r="E657" t="n">
+        <v>25450</v>
+      </c>
+      <c r="F657" t="n">
+        <v>662472</v>
+      </c>
+      <c r="G657" t="n">
+        <v>-1.926782273603083</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="B658" t="n">
+        <v>25450</v>
+      </c>
+      <c r="C658" t="n">
+        <v>25900</v>
+      </c>
+      <c r="D658" t="n">
+        <v>24800</v>
+      </c>
+      <c r="E658" t="n">
+        <v>25750</v>
+      </c>
+      <c r="F658" t="n">
+        <v>615157</v>
+      </c>
+      <c r="G658" t="n">
+        <v>1.178781925343811</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="B659" t="n">
+        <v>25950</v>
+      </c>
+      <c r="C659" t="n">
+        <v>26400</v>
+      </c>
+      <c r="D659" t="n">
+        <v>25800</v>
+      </c>
+      <c r="E659" t="n">
+        <v>25900</v>
+      </c>
+      <c r="F659" t="n">
+        <v>449045</v>
+      </c>
+      <c r="G659" t="n">
+        <v>0.5825242718446602</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="2" t="n">
+        <v>45393</v>
+      </c>
+      <c r="B660" t="n">
+        <v>25000</v>
+      </c>
+      <c r="C660" t="n">
+        <v>26150</v>
+      </c>
+      <c r="D660" t="n">
+        <v>24950</v>
+      </c>
+      <c r="E660" t="n">
+        <v>26150</v>
+      </c>
+      <c r="F660" t="n">
+        <v>994151</v>
+      </c>
+      <c r="G660" t="n">
+        <v>0.9652509652509652</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="2" t="n">
+        <v>45394</v>
+      </c>
+      <c r="B661" t="n">
+        <v>25750</v>
+      </c>
+      <c r="C661" t="n">
+        <v>25900</v>
+      </c>
+      <c r="D661" t="n">
+        <v>24800</v>
+      </c>
+      <c r="E661" t="n">
+        <v>24850</v>
+      </c>
+      <c r="F661" t="n">
+        <v>1149992</v>
+      </c>
+      <c r="G661" t="n">
+        <v>-4.97131931166348</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="B662" t="n">
+        <v>24550</v>
+      </c>
+      <c r="C662" t="n">
+        <v>24800</v>
+      </c>
+      <c r="D662" t="n">
+        <v>24000</v>
+      </c>
+      <c r="E662" t="n">
+        <v>24750</v>
+      </c>
+      <c r="F662" t="n">
+        <v>611917</v>
+      </c>
+      <c r="G662" t="n">
+        <v>-0.4024144869215292</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="2" t="n">
+        <v>45398</v>
+      </c>
+      <c r="B663" t="n">
+        <v>24300</v>
+      </c>
+      <c r="C663" t="n">
+        <v>24500</v>
+      </c>
+      <c r="D663" t="n">
+        <v>23700</v>
+      </c>
+      <c r="E663" t="n">
+        <v>23800</v>
+      </c>
+      <c r="F663" t="n">
+        <v>867090</v>
+      </c>
+      <c r="G663" t="n">
+        <v>-3.838383838383838</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="2" t="n">
+        <v>45399</v>
+      </c>
+      <c r="B664" t="n">
+        <v>23850</v>
+      </c>
+      <c r="C664" t="n">
+        <v>24100</v>
+      </c>
+      <c r="D664" t="n">
+        <v>23200</v>
+      </c>
+      <c r="E664" t="n">
+        <v>23200</v>
+      </c>
+      <c r="F664" t="n">
+        <v>746824</v>
+      </c>
+      <c r="G664" t="n">
+        <v>-2.521008403361344</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="2" t="n">
+        <v>45400</v>
+      </c>
+      <c r="B665" t="n">
+        <v>23400</v>
+      </c>
+      <c r="C665" t="n">
+        <v>24200</v>
+      </c>
+      <c r="D665" t="n">
+        <v>23300</v>
+      </c>
+      <c r="E665" t="n">
+        <v>24050</v>
+      </c>
+      <c r="F665" t="n">
+        <v>575099</v>
+      </c>
+      <c r="G665" t="n">
+        <v>3.663793103448275</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="B666" t="n">
+        <v>23500</v>
+      </c>
+      <c r="C666" t="n">
+        <v>23850</v>
+      </c>
+      <c r="D666" t="n">
+        <v>23250</v>
+      </c>
+      <c r="E666" t="n">
+        <v>23750</v>
+      </c>
+      <c r="F666" t="n">
+        <v>758594</v>
+      </c>
+      <c r="G666" t="n">
+        <v>-1.247401247401247</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="B667" t="n">
+        <v>24300</v>
+      </c>
+      <c r="C667" t="n">
+        <v>24700</v>
+      </c>
+      <c r="D667" t="n">
+        <v>24150</v>
+      </c>
+      <c r="E667" t="n">
+        <v>24700</v>
+      </c>
+      <c r="F667" t="n">
+        <v>490341</v>
+      </c>
+      <c r="G667" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="2" t="n">
+        <v>45405</v>
+      </c>
+      <c r="B668" t="n">
+        <v>24550</v>
+      </c>
+      <c r="C668" t="n">
+        <v>24750</v>
+      </c>
+      <c r="D668" t="n">
+        <v>24400</v>
+      </c>
+      <c r="E668" t="n">
+        <v>24500</v>
+      </c>
+      <c r="F668" t="n">
+        <v>355484</v>
+      </c>
+      <c r="G668" t="n">
+        <v>-0.8097165991902834</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="2" t="n">
+        <v>45406</v>
+      </c>
+      <c r="B669" t="n">
+        <v>24750</v>
+      </c>
+      <c r="C669" t="n">
+        <v>24900</v>
+      </c>
+      <c r="D669" t="n">
+        <v>24600</v>
+      </c>
+      <c r="E669" t="n">
+        <v>24700</v>
+      </c>
+      <c r="F669" t="n">
+        <v>476435</v>
+      </c>
+      <c r="G669" t="n">
+        <v>0.8163265306122449</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="2" t="n">
+        <v>45407</v>
+      </c>
+      <c r="B670" t="n">
+        <v>24350</v>
+      </c>
+      <c r="C670" t="n">
+        <v>24750</v>
+      </c>
+      <c r="D670" t="n">
+        <v>24100</v>
+      </c>
+      <c r="E670" t="n">
+        <v>24400</v>
+      </c>
+      <c r="F670" t="n">
+        <v>464577</v>
+      </c>
+      <c r="G670" t="n">
+        <v>-1.214574898785425</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="2" t="n">
+        <v>45408</v>
+      </c>
+      <c r="B671" t="n">
+        <v>24600</v>
+      </c>
+      <c r="C671" t="n">
+        <v>24950</v>
+      </c>
+      <c r="D671" t="n">
+        <v>24500</v>
+      </c>
+      <c r="E671" t="n">
+        <v>24650</v>
+      </c>
+      <c r="F671" t="n">
+        <v>442120</v>
+      </c>
+      <c r="G671" t="n">
+        <v>1.024590163934426</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="B672" t="n">
+        <v>24850</v>
+      </c>
+      <c r="C672" t="n">
+        <v>25100</v>
+      </c>
+      <c r="D672" t="n">
+        <v>24650</v>
+      </c>
+      <c r="E672" t="n">
+        <v>25100</v>
+      </c>
+      <c r="F672" t="n">
+        <v>618041</v>
+      </c>
+      <c r="G672" t="n">
+        <v>1.825557809330629</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B673" t="n">
+        <v>25000</v>
+      </c>
+      <c r="C673" t="n">
+        <v>25250</v>
+      </c>
+      <c r="D673" t="n">
+        <v>24850</v>
+      </c>
+      <c r="E673" t="n">
+        <v>25100</v>
+      </c>
+      <c r="F673" t="n">
+        <v>662478</v>
+      </c>
+      <c r="G673" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="B674" t="n">
+        <v>24700</v>
+      </c>
+      <c r="C674" t="n">
+        <v>24950</v>
+      </c>
+      <c r="D674" t="n">
+        <v>24100</v>
+      </c>
+      <c r="E674" t="n">
+        <v>24800</v>
+      </c>
+      <c r="F674" t="n">
+        <v>641419</v>
+      </c>
+      <c r="G674" t="n">
+        <v>-1.195219123505976</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="B675" t="n">
+        <v>25100</v>
+      </c>
+      <c r="C675" t="n">
+        <v>25450</v>
+      </c>
+      <c r="D675" t="n">
+        <v>25100</v>
+      </c>
+      <c r="E675" t="n">
+        <v>25300</v>
+      </c>
+      <c r="F675" t="n">
+        <v>589082</v>
+      </c>
+      <c r="G675" t="n">
+        <v>2.016129032258065</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="2" t="n">
+        <v>45419</v>
+      </c>
+      <c r="B676" t="n">
+        <v>25600</v>
+      </c>
+      <c r="C676" t="n">
+        <v>26100</v>
+      </c>
+      <c r="D676" t="n">
+        <v>25350</v>
+      </c>
+      <c r="E676" t="n">
+        <v>25850</v>
+      </c>
+      <c r="F676" t="n">
+        <v>1053703</v>
+      </c>
+      <c r="G676" t="n">
+        <v>2.173913043478261</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="2" t="n">
+        <v>45420</v>
+      </c>
+      <c r="B677" t="n">
+        <v>26150</v>
+      </c>
+      <c r="C677" t="n">
+        <v>26350</v>
+      </c>
+      <c r="D677" t="n">
+        <v>25350</v>
+      </c>
+      <c r="E677" t="n">
+        <v>25600</v>
+      </c>
+      <c r="F677" t="n">
+        <v>1355350</v>
+      </c>
+      <c r="G677" t="n">
+        <v>-0.9671179883945842</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="2" t="n">
+        <v>45421</v>
+      </c>
+      <c r="B678" t="n">
+        <v>25700</v>
+      </c>
+      <c r="C678" t="n">
+        <v>25750</v>
+      </c>
+      <c r="D678" t="n">
+        <v>23850</v>
+      </c>
+      <c r="E678" t="n">
+        <v>24050</v>
+      </c>
+      <c r="F678" t="n">
+        <v>3340432</v>
+      </c>
+      <c r="G678" t="n">
+        <v>-6.0546875</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="B679" t="n">
+        <v>24200</v>
+      </c>
+      <c r="C679" t="n">
+        <v>24300</v>
+      </c>
+      <c r="D679" t="n">
+        <v>23950</v>
+      </c>
+      <c r="E679" t="n">
+        <v>24050</v>
+      </c>
+      <c r="F679" t="n">
+        <v>1129104</v>
+      </c>
+      <c r="G679" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="B680" t="n">
+        <v>24100</v>
+      </c>
+      <c r="C680" t="n">
+        <v>24250</v>
+      </c>
+      <c r="D680" t="n">
+        <v>23800</v>
+      </c>
+      <c r="E680" t="n">
+        <v>23850</v>
+      </c>
+      <c r="F680" t="n">
+        <v>905299</v>
+      </c>
+      <c r="G680" t="n">
+        <v>-0.8316008316008316</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="2" t="n">
+        <v>45426</v>
+      </c>
+      <c r="B681" t="n">
+        <v>23850</v>
+      </c>
+      <c r="C681" t="n">
+        <v>24000</v>
+      </c>
+      <c r="D681" t="n">
+        <v>23700</v>
+      </c>
+      <c r="E681" t="n">
+        <v>23700</v>
+      </c>
+      <c r="F681" t="n">
+        <v>781017</v>
+      </c>
+      <c r="G681" t="n">
+        <v>-0.628930817610063</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="2" t="n">
+        <v>45428</v>
+      </c>
+      <c r="B682" t="n">
+        <v>24000</v>
+      </c>
+      <c r="C682" t="n">
+        <v>24300</v>
+      </c>
+      <c r="D682" t="n">
+        <v>23750</v>
+      </c>
+      <c r="E682" t="n">
+        <v>23800</v>
+      </c>
+      <c r="F682" t="n">
+        <v>1305491</v>
+      </c>
+      <c r="G682" t="n">
+        <v>0.4219409282700421</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="B683" t="n">
+        <v>23850</v>
+      </c>
+      <c r="C683" t="n">
+        <v>24000</v>
+      </c>
+      <c r="D683" t="n">
+        <v>23500</v>
+      </c>
+      <c r="E683" t="n">
+        <v>23500</v>
+      </c>
+      <c r="F683" t="n">
+        <v>805129</v>
+      </c>
+      <c r="G683" t="n">
+        <v>-1.260504201680672</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B684" t="n">
+        <v>23750</v>
+      </c>
+      <c r="C684" t="n">
+        <v>23850</v>
+      </c>
+      <c r="D684" t="n">
+        <v>23400</v>
+      </c>
+      <c r="E684" t="n">
+        <v>23500</v>
+      </c>
+      <c r="F684" t="n">
+        <v>612630</v>
+      </c>
+      <c r="G684" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="2" t="n">
+        <v>45433</v>
+      </c>
+      <c r="B685" t="n">
+        <v>23400</v>
+      </c>
+      <c r="C685" t="n">
+        <v>23500</v>
+      </c>
+      <c r="D685" t="n">
+        <v>22800</v>
+      </c>
+      <c r="E685" t="n">
+        <v>23050</v>
+      </c>
+      <c r="F685" t="n">
+        <v>918249</v>
+      </c>
+      <c r="G685" t="n">
+        <v>-1.914893617021276</v>
       </c>
     </row>
   </sheetData>
